--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.529611477844648</v>
+        <v>0.5953293333333333</v>
       </c>
       <c r="H2">
-        <v>0.529611477844648</v>
+        <v>1.785988</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N2">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q2">
-        <v>7.114089024369652</v>
+        <v>8.134265676778664</v>
       </c>
       <c r="R2">
-        <v>7.114089024369652</v>
+        <v>73.208391091008</v>
       </c>
       <c r="S2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="T2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.529611477844648</v>
+        <v>0.5953293333333333</v>
       </c>
       <c r="H3">
-        <v>0.529611477844648</v>
+        <v>1.785988</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N3">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q3">
-        <v>16.16347333794021</v>
+        <v>18.42302126538177</v>
       </c>
       <c r="R3">
-        <v>16.16347333794021</v>
+        <v>165.807191388436</v>
       </c>
       <c r="S3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="T3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.529611477844648</v>
+        <v>0.5953293333333333</v>
       </c>
       <c r="H4">
-        <v>0.529611477844648</v>
+        <v>1.785988</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N4">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q4">
-        <v>2.641038499964106</v>
+        <v>3.011156122132</v>
       </c>
       <c r="R4">
-        <v>2.641038499964106</v>
+        <v>27.100405099188</v>
       </c>
       <c r="S4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="T4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.529611477844648</v>
+        <v>0.5953293333333333</v>
       </c>
       <c r="H5">
-        <v>0.529611477844648</v>
+        <v>1.785988</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N5">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q5">
-        <v>3.02958954394842</v>
+        <v>3.647904501616444</v>
       </c>
       <c r="R5">
-        <v>3.02958954394842</v>
+        <v>32.831140514548</v>
       </c>
       <c r="S5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="T5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.529611477844648</v>
+        <v>0.5953293333333333</v>
       </c>
       <c r="H6">
-        <v>0.529611477844648</v>
+        <v>1.785988</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.79899940307721</v>
+        <v>7.373288333333332</v>
       </c>
       <c r="N6">
-        <v>6.79899940307721</v>
+        <v>22.119865</v>
       </c>
       <c r="O6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="P6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="Q6">
-        <v>3.600828121728601</v>
+        <v>4.389534827957776</v>
       </c>
       <c r="R6">
-        <v>3.600828121728601</v>
+        <v>39.50581345161999</v>
       </c>
       <c r="S6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="T6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
     </row>
   </sheetData>
